--- a/soundmodding/sounds.xlsx
+++ b/soundmodding/sounds.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan_v\OneDrive\Desktop\soundmodding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\soundmodding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4911DD3-D32E-406F-8C4E-2DC11037B5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8EA1A0-627E-4793-B111-67958BE9C201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="1725" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="298">
   <si>
     <t>XA100003</t>
   </si>
@@ -93,9 +96,6 @@
     <t>BD47219</t>
   </si>
   <si>
-    <t>That was an entertaining distraction, but it WAS a distraction. We have work to do. Let's go.</t>
-  </si>
-  <si>
     <t>BD47449</t>
   </si>
   <si>
@@ -150,9 +150,6 @@
     <t>BD58527</t>
   </si>
   <si>
-    <t>~Real love did come into my life, the moment I held Rohma in my arms. I hope to someday share the honor of being her parent with the right person.~</t>
-  </si>
-  <si>
     <t>BD58529</t>
   </si>
   <si>
@@ -211,13 +208,727 @@
   </si>
   <si>
     <t>BD58846</t>
+  </si>
+  <si>
+    <t>BD38074</t>
+  </si>
+  <si>
+    <t>~Looks like this is it, &lt;CHARNAME&gt;. Let's go.~</t>
+  </si>
+  <si>
+    <t>BD62258</t>
+  </si>
+  <si>
+    <t>~Something's not right here.~</t>
+  </si>
+  <si>
+    <t>~Let's get them out of there.~</t>
+  </si>
+  <si>
+    <t>BD40129</t>
+  </si>
+  <si>
+    <t>~I've an idea, &lt;CHARNAME&gt;.~</t>
+  </si>
+  <si>
+    <t>A word</t>
+  </si>
+  <si>
+    <t>BD67132</t>
+  </si>
+  <si>
+    <t>BD40779</t>
+  </si>
+  <si>
+    <t>Is there something I can do for you</t>
+  </si>
+  <si>
+    <t>BD54359</t>
+  </si>
+  <si>
+    <t>~This isn't the time. I have a mission. That's all that matters. So let's go.~</t>
+  </si>
+  <si>
+    <t>BD54384</t>
+  </si>
+  <si>
+    <t>BD54420</t>
+  </si>
+  <si>
+    <t>Do you have any children</t>
+  </si>
+  <si>
+    <t>BD65225</t>
+  </si>
+  <si>
+    <t>~You are in a foul temper this day. I'll leave you to it.~</t>
+  </si>
+  <si>
+    <t>BD54445</t>
+  </si>
+  <si>
+    <t>Can you try to be serious just for one gods damned minute?</t>
+  </si>
+  <si>
+    <t>BD54483</t>
+  </si>
+  <si>
+    <t>BD54497</t>
+  </si>
+  <si>
+    <t>~Thank you, &lt;CHARNAME&gt;. Thank you for understanding.~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Come here.~ </t>
+  </si>
+  <si>
+    <t>BD54548</t>
+  </si>
+  <si>
+    <t>~I'd be happy to discuss the matter some other time.~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BD51724 </t>
+  </si>
+  <si>
+    <t>BD50195</t>
+  </si>
+  <si>
+    <t>~What the hells is this now?~</t>
+  </si>
+  <si>
+    <t>~What was that? What just happened?~</t>
+  </si>
+  <si>
+    <t>BD50210</t>
+  </si>
+  <si>
+    <t>~Well, that was... That was something. Let's go.~</t>
+  </si>
+  <si>
+    <t>BD50374</t>
+  </si>
+  <si>
+    <t>~Most just call that "the hard way."~</t>
+  </si>
+  <si>
+    <t>BD59508</t>
+  </si>
+  <si>
+    <t>Try showing a little respect for once,</t>
+  </si>
+  <si>
+    <t>BD65597</t>
+  </si>
+  <si>
+    <t>XA100001</t>
+  </si>
+  <si>
+    <t>That… That's it? That's all you wanted to say?</t>
+  </si>
+  <si>
+    <t>XA100011</t>
+  </si>
+  <si>
+    <t>The Council has asked..</t>
+  </si>
+  <si>
+    <t>XA100012</t>
+  </si>
+  <si>
+    <t>My father will look after her…</t>
+  </si>
+  <si>
+    <t>XA100013</t>
+  </si>
+  <si>
+    <t>XA100014</t>
+  </si>
+  <si>
+    <t>Gladly my friend.</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>That's fair. Being a parent has many rewards, but it brings its share of difficulties too.~</t>
+  </si>
+  <si>
+    <t>XA100015</t>
+  </si>
+  <si>
+    <t>We have work to do. Let's go.</t>
+  </si>
+  <si>
+    <t>XA100016</t>
+  </si>
+  <si>
+    <t>~My father was a Fist as well. He taught me how to fight at a young age.~ [XA100016]</t>
+  </si>
+  <si>
+    <t>He was very committed to his duty, like I am. His responsibilities to the Fist left little time for other concerns, including my mother.~ [XA100018]</t>
+  </si>
+  <si>
+    <t>XA100018</t>
+  </si>
+  <si>
+    <t>XA100017</t>
+  </si>
+  <si>
+    <t>~(She adjusts the string on her bow)~ [XA10018]</t>
+  </si>
+  <si>
+    <t>~Dorn — I thought you'd have learned by now that you can't serve two masters.~</t>
+  </si>
+  <si>
+    <t>XA100019</t>
+  </si>
+  <si>
+    <t>XA100020</t>
+  </si>
+  <si>
+    <t>XA100021</t>
+  </si>
+  <si>
+    <t>XA100022</t>
+  </si>
+  <si>
+    <t>XA100023</t>
+  </si>
+  <si>
+    <t>XA100024</t>
+  </si>
+  <si>
+    <t>XA100025</t>
+  </si>
+  <si>
+    <t>XA100026</t>
+  </si>
+  <si>
+    <t>XA100027</t>
+  </si>
+  <si>
+    <t>XA100028</t>
+  </si>
+  <si>
+    <t>XA100029</t>
+  </si>
+  <si>
+    <t>XA100030</t>
+  </si>
+  <si>
+    <t>XA100031</t>
+  </si>
+  <si>
+    <t>XA100032</t>
+  </si>
+  <si>
+    <t>XA100033</t>
+  </si>
+  <si>
+    <t>XA100034</t>
+  </si>
+  <si>
+    <t>XA100035</t>
+  </si>
+  <si>
+    <t>XA100036</t>
+  </si>
+  <si>
+    <t>XA100037</t>
+  </si>
+  <si>
+    <t>XA100038</t>
+  </si>
+  <si>
+    <t>XA100039</t>
+  </si>
+  <si>
+    <t>XA100040</t>
+  </si>
+  <si>
+    <t>XA100041</t>
+  </si>
+  <si>
+    <t>XA100042</t>
+  </si>
+  <si>
+    <t>XA100043</t>
+  </si>
+  <si>
+    <t>XA100044</t>
+  </si>
+  <si>
+    <t>XA100045</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ~Aerie, what's wrong? You seem worried... more than usual, anyway.~</t>
+  </si>
+  <si>
+    <t>You alright?</t>
+  </si>
+  <si>
+    <t>BD56086</t>
+  </si>
+  <si>
+    <t>What do you need?</t>
+  </si>
+  <si>
+    <t>BD57228</t>
+  </si>
+  <si>
+    <t>Be on your guard &lt;CHARNAME&gt;. This place was practically made for an ambush.</t>
+  </si>
+  <si>
+    <t>Everyone stay alert. We don't know what we're heading into.</t>
+  </si>
+  <si>
+    <t>BD39095</t>
+  </si>
+  <si>
+    <t>Quick and dirty, take 'em down!</t>
+  </si>
+  <si>
+    <t>BD50275</t>
+  </si>
+  <si>
+    <t>Ramble nonsensically to his pet rodent about other peoples' rears?</t>
+  </si>
+  <si>
+    <t>BD58851</t>
+  </si>
+  <si>
+    <t>BD58858</t>
+  </si>
+  <si>
+    <t>That's my assignment, so yeah. Why do you ask?</t>
+  </si>
+  <si>
+    <t>No. You can have five.</t>
+  </si>
+  <si>
+    <t>I though monks were supposed to be serene... It was a joke, Rasaad. What can I do for you?</t>
+  </si>
+  <si>
+    <t>BD58861</t>
+  </si>
+  <si>
+    <t>BD58863</t>
+  </si>
+  <si>
+    <t>That depends what you mean by someone like me.</t>
+  </si>
+  <si>
+    <t>BD58871</t>
+  </si>
+  <si>
+    <t>Circumstances don't allow many people, mothers or otherwise, to do what they'd prefer.</t>
+  </si>
+  <si>
+    <t>BD58873</t>
+  </si>
+  <si>
+    <t>Keep flapping your lips and I'll show you a pathetic creature, you little tart.</t>
+  </si>
+  <si>
+    <t>BD58875</t>
+  </si>
+  <si>
+    <t>I know what you meant. Next time, keep that thrice-damned pit of hell you call a mouth shut or I'll shut it for you.</t>
+  </si>
+  <si>
+    <t>BD58877</t>
+  </si>
+  <si>
+    <t>I'm going to stop talking to you now. And I'm especially going to stop listening.</t>
+  </si>
+  <si>
+    <t>BD58915</t>
+  </si>
+  <si>
+    <t>BD58923</t>
+  </si>
+  <si>
+    <t>That's high praise, coming from someone who knows his way around a sword as well as you.</t>
+  </si>
+  <si>
+    <t>BD58927</t>
+  </si>
+  <si>
+    <t>Do you actually care about anything we're trying to accomplish here?</t>
+  </si>
+  <si>
+    <t>No. What is it, Neera?</t>
+  </si>
+  <si>
+    <t>BD58935</t>
+  </si>
+  <si>
+    <t>What is it, Neera?</t>
+  </si>
+  <si>
+    <t>BD58946</t>
+  </si>
+  <si>
+    <t>No, please don't. I mean... I'm fine. Thank you.</t>
+  </si>
+  <si>
+    <t>That's what I like to see. Would that there were more like you.</t>
+  </si>
+  <si>
+    <t>BD67546</t>
+  </si>
+  <si>
+    <t>If I've got to fight, I'm glad it's you I'm fighting beside.</t>
+  </si>
+  <si>
+    <t>BD67547</t>
+  </si>
+  <si>
+    <t>That's kind of you to say.</t>
+  </si>
+  <si>
+    <t>BD67552</t>
+  </si>
+  <si>
+    <t>BD67553</t>
+  </si>
+  <si>
+    <t>True.</t>
+  </si>
+  <si>
+    <t>~Keldorn, a moment of your time?~ [XACORB12]</t>
+  </si>
+  <si>
+    <t>~Real love did come into my life, the moment I held Rohma in my arms. I hope to someday share the honor of being her parent with the right person… it’s a big job.~</t>
+  </si>
+  <si>
+    <t>I hope to one day share the honor of being her parent with the right person… it's a big job.</t>
+  </si>
+  <si>
+    <t>Sure. What's on your mind?</t>
+  </si>
+  <si>
+    <t>~The lesson is this: war places people into untenable situations, and for that reason it must be avoided whenever possible.~</t>
+  </si>
+  <si>
+    <t>BD67545</t>
+  </si>
+  <si>
+    <t>Never forget that I'm watching you.</t>
+  </si>
+  <si>
+    <t>BD37543</t>
+  </si>
+  <si>
+    <t>~I never knew you were so... devoted, &lt;CHARNAME&gt;.</t>
+  </si>
+  <si>
+    <t>BD54407</t>
+  </si>
+  <si>
+    <t>~Aye. That would be for the best, I think.~</t>
+  </si>
+  <si>
+    <t>BD63913</t>
+  </si>
+  <si>
+    <t>~Oh, let's not, please.~</t>
+  </si>
+  <si>
+    <t>BD64597</t>
+  </si>
+  <si>
+    <t>BD34332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Spoken like someone who barely knows me, but I'll take what compliments I can get and do what I can not to change your mind.~ </t>
+  </si>
+  <si>
+    <t>BD35090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Ah, well, therein lies a tale, but it's a long one. My father, Audamar, was a Fist. You could say I followed in his footsteps.~ </t>
+  </si>
+  <si>
+    <t>BD35159</t>
+  </si>
+  <si>
+    <t>A little.</t>
+  </si>
+  <si>
+    <t>BD35157</t>
+  </si>
+  <si>
+    <t>~This must be a tough time for you, then.~</t>
+  </si>
+  <si>
+    <t>Take it as a compliment.</t>
+  </si>
+  <si>
+    <t>BD39876</t>
+  </si>
+  <si>
+    <t>BD39880</t>
+  </si>
+  <si>
+    <t>~You noticed. Good eye.~</t>
+  </si>
+  <si>
+    <t>~And how much had the person who told you that had to drink?~</t>
+  </si>
+  <si>
+    <t>BD39888</t>
+  </si>
+  <si>
+    <t>What have we here?</t>
+  </si>
+  <si>
+    <t>BD60998</t>
+  </si>
+  <si>
+    <t>BD54931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Got everything you need?~ </t>
+  </si>
+  <si>
+    <t>BD35448</t>
+  </si>
+  <si>
+    <t>~Not at all. That would imply some sort of effort on my part.~</t>
+  </si>
+  <si>
+    <t>~Well, you smell &lt;CHARNAME&gt; here? That's nauseating.~</t>
+  </si>
+  <si>
+    <t>BD35441</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ~The Flaming Fist doesn't care if a recruit is a man or a woman. What matters is their ability and willingness to do what's needed of them.~ </t>
+  </si>
+  <si>
+    <t>I have certain... pre-conceptions about people who come from wealth. It was unfair of me to apply them to you.~</t>
+  </si>
+  <si>
+    <t>~Anomen. What is it?~</t>
+  </si>
+  <si>
+    <t>What is it?</t>
+  </si>
+  <si>
+    <t>Hexxat.</t>
+  </si>
+  <si>
+    <t>You're doing a good job. Your skills are proving invaluable.~</t>
+  </si>
+  <si>
+    <t>BD58937</t>
+  </si>
+  <si>
+    <t>It's good to have another ranger on the team.</t>
+  </si>
+  <si>
+    <t>~Cernd, you have a beautiful child.~</t>
+  </si>
+  <si>
+    <t>Damn it!</t>
+  </si>
+  <si>
+    <t>About that exercise…</t>
+  </si>
+  <si>
+    <t>I have a question for you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ~Minsc, I'm sorry about Dynaheir. I know that you two were very close.~ </t>
+  </si>
+  <si>
+    <t>~Haer'Dalis? What is it?~</t>
+  </si>
+  <si>
+    <t>You seem agitated. What's bothering you?</t>
+  </si>
+  <si>
+    <t>~I suppose it's human nature. Most people are only concerned with the well-being of their loved ones.~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Our society has it's flaws to be sure, but people need order and safety as much as they do food and shelter. The way of things must be preserved. The alternative is chaos.~ </t>
+  </si>
+  <si>
+    <t>~Sorry — I'm not interested in the secrets of a group of maladjusted wizards, or in becoming your wife.~</t>
+  </si>
+  <si>
+    <t>Could I ask you something?</t>
+  </si>
+  <si>
+    <t>XA100046</t>
+  </si>
+  <si>
+    <t>XA100047</t>
+  </si>
+  <si>
+    <t>XA100048</t>
+  </si>
+  <si>
+    <t>XA100049</t>
+  </si>
+  <si>
+    <t>XA100050</t>
+  </si>
+  <si>
+    <t>XA100051</t>
+  </si>
+  <si>
+    <t>XA100052</t>
+  </si>
+  <si>
+    <t>What can I do for you?</t>
+  </si>
+  <si>
+    <t>Jan? About that recipe —</t>
+  </si>
+  <si>
+    <t>~You've been glaring at me for the last hour Anomen. What is it?~</t>
+  </si>
+  <si>
+    <t>XA100053</t>
+  </si>
+  <si>
+    <t>XA100054</t>
+  </si>
+  <si>
+    <t>XA100055</t>
+  </si>
+  <si>
+    <t>XA100056</t>
+  </si>
+  <si>
+    <t>XA100057</t>
+  </si>
+  <si>
+    <t>XA100058</t>
+  </si>
+  <si>
+    <t>XA100059</t>
+  </si>
+  <si>
+    <t>XA100060</t>
+  </si>
+  <si>
+    <t>XA100061</t>
+  </si>
+  <si>
+    <t>*Cough* *Cough*</t>
+  </si>
+  <si>
+    <t>~I've been watching you, love, and of late I don't like what I see.~</t>
+  </si>
+  <si>
+    <t>~I love you, Rohma. Now, give me a hug and go to your grandfather.~</t>
+  </si>
+  <si>
+    <t>Father!</t>
+  </si>
+  <si>
+    <t>What happened! Where's Rohma!</t>
+  </si>
+  <si>
+    <t>~And Major — don't worry about your family while you're gone. We'll make sure they are well-protected here in the palace, just in case the Five try anything again. Good hunting.~</t>
+  </si>
+  <si>
+    <t>Thank you sir.</t>
+  </si>
+  <si>
+    <t>Jaheira.</t>
+  </si>
+  <si>
+    <t>Cheering / Applause</t>
+  </si>
+  <si>
+    <t>Jeers and Laughter</t>
+  </si>
+  <si>
+    <t>BG Music - Journey to Saradush</t>
+  </si>
+  <si>
+    <t>XA100062</t>
+  </si>
+  <si>
+    <t>BG Music - Bad End</t>
+  </si>
+  <si>
+    <t>XA100063</t>
+  </si>
+  <si>
+    <t>BG Music - Return to BG</t>
+  </si>
+  <si>
+    <t>XA100064</t>
+  </si>
+  <si>
+    <t>XA100065</t>
+  </si>
+  <si>
+    <t>XA100066</t>
+  </si>
+  <si>
+    <t>XA100067</t>
+  </si>
+  <si>
+    <t>XA100068</t>
+  </si>
+  <si>
+    <t>XA100069</t>
+  </si>
+  <si>
+    <t>Bowshot</t>
+  </si>
+  <si>
+    <t>Cheering (Player / Corwin Kiss in Dragonspear Basement)</t>
+  </si>
+  <si>
+    <t>BG Music - Dinner Date with Corwin</t>
+  </si>
+  <si>
+    <t>No sound.</t>
+  </si>
+  <si>
+    <t>Ugh (Sick Corwin)</t>
+  </si>
+  <si>
+    <t>BD39327</t>
+  </si>
+  <si>
+    <t>It's done. Thank the gods.</t>
+  </si>
+  <si>
+    <t>XA100002</t>
+  </si>
+  <si>
+    <t>No. You've been forced into enough killing already.</t>
+  </si>
+  <si>
+    <t>Cough Cough</t>
+  </si>
+  <si>
+    <t>XA100070</t>
+  </si>
+  <si>
+    <t>No. You've been forced into enough killing already. Hand me the dagger.</t>
+  </si>
+  <si>
+    <t>That was an entertaining distraction, but it WAS a distraction. We have work to do. Let's go, love.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,13 +936,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -246,8 +976,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,263 +1265,1243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="79.28515625" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B85" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B86" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B87" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B88" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B89" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B90" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B92" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B141">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/soundmodding/sounds.xlsx
+++ b/soundmodding/sounds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\soundmodding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan_v\Beamdog Library\EET - Modding\00783\LCA\soundmodding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8EA1A0-627E-4793-B111-67958BE9C201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A401CB-F2E7-4E8D-84CA-94C9850325D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="358">
   <si>
     <t>XA100003</t>
   </si>
@@ -922,6 +922,186 @@
   </si>
   <si>
     <t>That was an entertaining distraction, but it WAS a distraction. We have work to do. Let's go, love.</t>
+  </si>
+  <si>
+    <t>I'm curious as to why you chose to specialize in the crossbow, instead of the longbow.</t>
+  </si>
+  <si>
+    <t>XA100071</t>
+  </si>
+  <si>
+    <t>XA100072</t>
+  </si>
+  <si>
+    <t>Gladly my friend. Let's go.</t>
+  </si>
+  <si>
+    <t>Flatterer. I'm glad to know you too. Now let's get going.</t>
+  </si>
+  <si>
+    <t>BD58847</t>
+  </si>
+  <si>
+    <t>XA100073</t>
+  </si>
+  <si>
+    <t>Flatterer…</t>
+  </si>
+  <si>
+    <t>XA100074</t>
+  </si>
+  <si>
+    <t>I'm glad to know you too.</t>
+  </si>
+  <si>
+    <t>XA100075</t>
+  </si>
+  <si>
+    <t>Now let's get going.</t>
+  </si>
+  <si>
+    <t>XA100076</t>
+  </si>
+  <si>
+    <t>How are you?</t>
+  </si>
+  <si>
+    <t>Next time you open your mouth, close it quickly—before that sort of idiocy spills off your tongue.</t>
+  </si>
+  <si>
+    <t>BD67544</t>
+  </si>
+  <si>
+    <t>XA100077</t>
+  </si>
+  <si>
+    <t>Heh. Most just call that the "hard way."</t>
+  </si>
+  <si>
+    <t>Have you taken leave of your senses?</t>
+  </si>
+  <si>
+    <t>XA100078</t>
+  </si>
+  <si>
+    <t>XA100079</t>
+  </si>
+  <si>
+    <t>Hah!</t>
+  </si>
+  <si>
+    <t>XA100080</t>
+  </si>
+  <si>
+    <t>~A better one than you deserve. Now either charm the stone, if you can, or stop talking. For sanity's sake.~ [BD56066]</t>
+  </si>
+  <si>
+    <t>BD56066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Oh, bind ME... &lt;CHARNAME&gt;, come here. We've got to get back to camp.~ </t>
+  </si>
+  <si>
+    <t>BD52375</t>
+  </si>
+  <si>
+    <t>A charismatic leader. An acolyte of the Order of the Aster, once.</t>
+  </si>
+  <si>
+    <t>XA100081</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Next time, keep that thrice-damned pit of hell you call a mouth shut or I'll shut it for you.</t>
+  </si>
+  <si>
+    <t>XA100082</t>
+  </si>
+  <si>
+    <t>~Hrm. There may be more to you than I thought. Now let's get going.~</t>
+  </si>
+  <si>
+    <t>To arms! There are more assassins about.</t>
+  </si>
+  <si>
+    <t>BD64643</t>
+  </si>
+  <si>
+    <t>BD67549</t>
+  </si>
+  <si>
+    <t>The Flaming Fist is trying to keep the peace, but it's an uphill battle.</t>
+  </si>
+  <si>
+    <t>~I don't know what to believe anymore.~ [BD54631]</t>
+  </si>
+  <si>
+    <t>BD54631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~It doesn't matter. I wish it did, but in the end, it doesn't.~ [BD70321] </t>
+  </si>
+  <si>
+    <t>BD70321</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ~I could kill you, &lt;CHARNAME&gt;. If it weren't for Rohma, I'd do it, you know. I would. You need to know how angry I am, to understand the rage I feel.~ [BD54637]</t>
+  </si>
+  <si>
+    <t>BD54637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Love conquers all. I'm not feeling particularly victorious right now. Are you?~ [BD54648] </t>
+  </si>
+  <si>
+    <t>BD54648</t>
+  </si>
+  <si>
+    <t>Would that I could say the same. But hope is a luxury I can't allow myself. Not anymore.~ [BD54652]</t>
+  </si>
+  <si>
+    <t>BD54652</t>
+  </si>
+  <si>
+    <t>This is bigger than us, &lt;CHARNAME&gt;. Bigger than the Flaming Fist, or even my family. You don't know what's happening up above... Skie's murder—at the hand of Sarevok Anchev's sibling, no less—has thrown Baldur's Gate into turmoil.~ [BD65159]</t>
+  </si>
+  <si>
+    <t>BD65159</t>
+  </si>
+  <si>
+    <t>Don't bring her into this. You won't like where that ends.~ [BD39644]</t>
+  </si>
+  <si>
+    <t>BD39644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Have I killed before? Yes—but never a defenseless girl. Never in cold blood. Never without cause. Don't give me cause now. Surrender.~ [BD39639] </t>
+  </si>
+  <si>
+    <t>BD39639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~I know EXACTLY what you're capable of. I've seen it. Now put your hands behind your head and get on your knees or by the gods I swear I will put you down.~ [BD39649] </t>
+  </si>
+  <si>
+    <t>BD39649</t>
+  </si>
+  <si>
+    <t>~You threaten my daughter, &lt;CHARNAME&gt;? You just made your last mistake. Take &lt;PRO_HIMHER&gt;!~ [BD39668]</t>
+  </si>
+  <si>
+    <t>BD39668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~I believe you. I wish that mattered. But all that matters is Baldur's Gate. You have no idea of the chaos Skie's murder unleashed. The people loved you, and now they learn their hero is a child of Bhaal like Sarevok? The city is tearing itself apart because of you.~ [BD62567] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[BD62567] </t>
+  </si>
+  <si>
+    <t>~Scores, if not hundreds, of innocent people have been slain by those in your service.~ [BD56584]</t>
+  </si>
+  <si>
+    <t>[BD56584]</t>
   </si>
 </sst>
 </file>
@@ -1265,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B152"/>
+  <dimension ref="A1:B182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,148 +1466,148 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>290</v>
+        <v>204</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>222</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>223</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>55</v>
+        <v>197</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>197</v>
+        <v>60</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>198</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>152</v>
+        <v>290</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>151</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1584,919 +1764,1159 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>71</v>
+        <v>324</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>70</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>199</v>
+        <v>73</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>200</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>220</v>
+        <v>84</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>221</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>147</v>
+        <v>220</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>149</v>
+        <v>322</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>150</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>57</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>155</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>157</v>
+        <v>59</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>161</v>
+        <v>303</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="65" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>232</v>
+        <v>173</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>202</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>146</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>95</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>28</v>
+        <v>203</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>196</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>182</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>186</v>
+        <v>312</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>97</v>
+        <v>183</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>292</v>
+        <v>185</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>293</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>1</v>
+        <v>186</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>4</v>
+        <v>188</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>5</v>
+        <v>189</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>14</v>
+        <v>292</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>15</v>
+        <v>293</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>179</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>194</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>148</v>
+        <v>227</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>236</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B130" s="3" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>248</v>
+        <v>144</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B156" s="3" t="s">
         <v>296</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B141">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B167">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>

--- a/soundmodding/sounds.xlsx
+++ b/soundmodding/sounds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan_v\Beamdog Library\EET - Modding\00783\LCA\soundmodding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A401CB-F2E7-4E8D-84CA-94C9850325D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA594D5B-4A93-425C-A34B-27FF43EE472F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3630" yWindow="2025" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1447,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="B182" sqref="B182"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/soundmodding/sounds.xlsx
+++ b/soundmodding/sounds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan_v\Beamdog Library\EET - Modding\00783\LCA\soundmodding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA594D5B-4A93-425C-A34B-27FF43EE472F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53D89EA-5E06-4B79-B097-097CDD838786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3630" yWindow="2025" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="364">
   <si>
     <t>XA100003</t>
   </si>
@@ -1102,6 +1102,24 @@
   </si>
   <si>
     <t>[BD56584]</t>
+  </si>
+  <si>
+    <t>XA100086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~The last thing we need is a band of trolls catching us unawares.~ [XA100086] </t>
+  </si>
+  <si>
+    <t>XA100087</t>
+  </si>
+  <si>
+    <t>Don't engage the enemy if you can help it.</t>
+  </si>
+  <si>
+    <t>The fewer people who learn of this, the better.</t>
+  </si>
+  <si>
+    <t>XA100088</t>
   </si>
 </sst>
 </file>
@@ -1445,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B182"/>
+  <dimension ref="A1:B185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="A186" sqref="A186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2914,6 +2932,30 @@
         <v>356</v>
       </c>
     </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B167">

--- a/soundmodding/sounds.xlsx
+++ b/soundmodding/sounds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan_v\Beamdog Library\EET - Modding\00783\LCA\soundmodding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\soundmodding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53D89EA-5E06-4B79-B097-097CDD838786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB1516A-A77A-4D40-8405-3BE655DEB4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="2025" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32145" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="366">
   <si>
     <t>XA100003</t>
   </si>
@@ -1120,6 +1120,12 @@
   </si>
   <si>
     <t>XA100088</t>
+  </si>
+  <si>
+    <t>By order of the Flaming Fist you are under arrest!</t>
+  </si>
+  <si>
+    <t>XA100089</t>
   </si>
 </sst>
 </file>
@@ -1463,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B185"/>
+  <dimension ref="A1:B186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="A186" sqref="A186"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="B189" sqref="B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2956,6 +2962,14 @@
         <v>362</v>
       </c>
     </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B167">

--- a/soundmodding/sounds.xlsx
+++ b/soundmodding/sounds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\soundmodding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB1516A-A77A-4D40-8405-3BE655DEB4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D77BA6-F731-41BE-B0A0-B86F3D90D4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32145" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1471,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="B189" sqref="B189"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/soundmodding/sounds.xlsx
+++ b/soundmodding/sounds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\soundmodding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D77BA6-F731-41BE-B0A0-B86F3D90D4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99B6DC7-4211-41DE-A4D1-E6EAB30B1392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14400" yWindow="150" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1471,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="B180" sqref="B180"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/soundmodding/sounds.xlsx
+++ b/soundmodding/sounds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\soundmodding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan_v\Beamdog Library\EET - Modding\00783\LCA\soundmodding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99B6DC7-4211-41DE-A4D1-E6EAB30B1392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C593D18A-C11B-4B9E-9ED3-AB933948BA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14400" yWindow="150" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="390">
   <si>
     <t>XA100003</t>
   </si>
@@ -1126,6 +1126,78 @@
   </si>
   <si>
     <t>XA100089</t>
+  </si>
+  <si>
+    <t>XA100090</t>
+  </si>
+  <si>
+    <t>Love conquers all.</t>
+  </si>
+  <si>
+    <t>XA100091</t>
+  </si>
+  <si>
+    <t>XA100092</t>
+  </si>
+  <si>
+    <t>XA100093</t>
+  </si>
+  <si>
+    <t>XA100094</t>
+  </si>
+  <si>
+    <t>XA100095</t>
+  </si>
+  <si>
+    <t>~Thank you, for everything.~</t>
+  </si>
+  <si>
+    <t>~Maybe someday you will, if you're lucky.~</t>
+  </si>
+  <si>
+    <t>~Farewell.~</t>
+  </si>
+  <si>
+    <t>~Thank you.~ [XA100091]</t>
+  </si>
+  <si>
+    <t>~You don’t know how much I appreciate that.~ [XA100093]</t>
+  </si>
+  <si>
+    <t>XA100096</t>
+  </si>
+  <si>
+    <t>~Right.~</t>
+  </si>
+  <si>
+    <t>XA100097</t>
+  </si>
+  <si>
+    <t>~Let's go.~</t>
+  </si>
+  <si>
+    <t>BD54471</t>
+  </si>
+  <si>
+    <t>We need to talk</t>
+  </si>
+  <si>
+    <t>XA100099</t>
+  </si>
+  <si>
+    <t>I'm going with you. Don't try and talk me out of it.</t>
+  </si>
+  <si>
+    <t>XA100100</t>
+  </si>
+  <si>
+    <t>Stay close.</t>
+  </si>
+  <si>
+    <t>XA100101</t>
+  </si>
+  <si>
+    <t>You sure you don't want me with you?</t>
   </si>
 </sst>
 </file>
@@ -1469,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B186"/>
+  <dimension ref="A1:B198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2970,6 +3042,102 @@
         <v>364</v>
       </c>
     </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B167">

--- a/soundmodding/sounds.xlsx
+++ b/soundmodding/sounds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan_v\Beamdog Library\EET - Modding\00783\LCA\soundmodding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C593D18A-C11B-4B9E-9ED3-AB933948BA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30A3662-E394-4A2C-9F34-C250FE82EF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1543,8 +1543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="B198" sqref="B198"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/soundmodding/sounds.xlsx
+++ b/soundmodding/sounds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan_v\Beamdog Library\EET - Modding\00783\LCA\soundmodding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\soundmodding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30A3662-E394-4A2C-9F34-C250FE82EF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC237234-962D-4108-899D-B834EBE1B549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="396">
   <si>
     <t>XA100003</t>
   </si>
@@ -1198,6 +1198,24 @@
   </si>
   <si>
     <t>You sure you don't want me with you?</t>
+  </si>
+  <si>
+    <t>XA100102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be on your guard. </t>
+  </si>
+  <si>
+    <t>XA100103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be on your guard… the last thing we need is a band of trolls catching us unawares. </t>
+  </si>
+  <si>
+    <t>XA100104</t>
+  </si>
+  <si>
+    <t>Let's go find some place a little more private.</t>
   </si>
 </sst>
 </file>
@@ -1541,10 +1559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B198"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2882,7 +2900,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>326</v>
       </c>
@@ -3136,6 +3154,30 @@
       </c>
       <c r="B198" s="3" t="s">
         <v>389</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>

--- a/soundmodding/sounds.xlsx
+++ b/soundmodding/sounds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\soundmodding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan_v\Beamdog Library\EET - Modding\00783\LCA\soundmodding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC237234-962D-4108-899D-B834EBE1B549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FE4A6F-34D0-432C-9016-40230C489D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="398">
   <si>
     <t>XA100003</t>
   </si>
@@ -1216,6 +1216,12 @@
   </si>
   <si>
     <t>Let's go find some place a little more private.</t>
+  </si>
+  <si>
+    <t>XA100105</t>
+  </si>
+  <si>
+    <t>Right… We have work to do. Let's go.</t>
   </si>
 </sst>
 </file>
@@ -1559,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="B200" sqref="B200"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3180,6 +3186,14 @@
         <v>391</v>
       </c>
     </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B167">

--- a/soundmodding/sounds.xlsx
+++ b/soundmodding/sounds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan_v\Beamdog Library\EET - Modding\00783\LCA\soundmodding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FE4A6F-34D0-432C-9016-40230C489D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7695F2-49BE-40D1-B91E-01DF77934FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="402">
   <si>
     <t>XA100003</t>
   </si>
@@ -1222,6 +1222,18 @@
   </si>
   <si>
     <t>Right… We have work to do. Let's go.</t>
+  </si>
+  <si>
+    <t>XA100106</t>
+  </si>
+  <si>
+    <t>That's nauseating.</t>
+  </si>
+  <si>
+    <t>XA100107</t>
+  </si>
+  <si>
+    <t>Nauseating.</t>
   </si>
 </sst>
 </file>
@@ -1565,10 +1577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B202"/>
+  <dimension ref="A1:B204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="B203" sqref="B203"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="A205" sqref="A205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3194,6 +3206,22 @@
         <v>397</v>
       </c>
     </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B167">

--- a/soundmodding/sounds.xlsx
+++ b/soundmodding/sounds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan_v\Beamdog Library\EET - Modding\00783\LCA\soundmodding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7695F2-49BE-40D1-B91E-01DF77934FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1959B887-5340-4EC4-B768-974412987809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="404">
   <si>
     <t>XA100003</t>
   </si>
@@ -1234,6 +1234,12 @@
   </si>
   <si>
     <t>Nauseating.</t>
+  </si>
+  <si>
+    <t>XA100108</t>
+  </si>
+  <si>
+    <t>All that blood… It's sickening that the city authorities allow this to occur.</t>
   </si>
 </sst>
 </file>
@@ -1577,10 +1583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B204"/>
+  <dimension ref="A1:B205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="A205" sqref="A205"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3222,6 +3228,14 @@
         <v>401</v>
       </c>
     </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B167">

--- a/soundmodding/sounds.xlsx
+++ b/soundmodding/sounds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan_v\Beamdog Library\EET - Modding\00783\LCA\soundmodding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\soundmodding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1959B887-5340-4EC4-B768-974412987809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97769C8-6738-4BFC-ADF6-DAC5DEF48ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="406">
   <si>
     <t>XA100003</t>
   </si>
@@ -1240,6 +1240,12 @@
   </si>
   <si>
     <t>All that blood… It's sickening that the city authorities allow this to occur.</t>
+  </si>
+  <si>
+    <t>BD37174</t>
+  </si>
+  <si>
+    <t>Damn it! We're supposed to be heling these people.</t>
   </si>
 </sst>
 </file>
@@ -1583,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B205"/>
+  <dimension ref="A1:B206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="B206" sqref="B206"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3236,6 +3242,14 @@
         <v>403</v>
       </c>
     </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B167">

--- a/soundmodding/sounds.xlsx
+++ b/soundmodding/sounds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\soundmodding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97769C8-6738-4BFC-ADF6-DAC5DEF48ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7241D4-0AFC-4AA7-9C5A-034D433FBF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28020" yWindow="930" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="408">
   <si>
     <t>XA100003</t>
   </si>
@@ -1246,6 +1246,12 @@
   </si>
   <si>
     <t>Damn it! We're supposed to be heling these people.</t>
+  </si>
+  <si>
+    <t>XA100109</t>
+  </si>
+  <si>
+    <t>Thank the gods.</t>
   </si>
 </sst>
 </file>
@@ -1589,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B206"/>
+  <dimension ref="A1:B207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3250,6 +3256,14 @@
         <v>405</v>
       </c>
     </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B167">

--- a/soundmodding/sounds.xlsx
+++ b/soundmodding/sounds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\soundmodding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan_v\Beamdog Library\EET - Modding\00783\LCA\soundmodding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7241D4-0AFC-4AA7-9C5A-034D433FBF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0616A5-951E-4D33-B1B3-0221D95DFD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="930" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="410">
   <si>
     <t>XA100003</t>
   </si>
@@ -1252,6 +1252,12 @@
   </si>
   <si>
     <t>Thank the gods.</t>
+  </si>
+  <si>
+    <t>We're not here to pick fights with braggarts.</t>
+  </si>
+  <si>
+    <t>XA100110</t>
   </si>
 </sst>
 </file>
@@ -1595,10 +1601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B207"/>
+  <dimension ref="A1:B208"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="B208" sqref="B208"/>
+      <selection activeCell="A209" sqref="A209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3264,6 +3270,14 @@
         <v>407</v>
       </c>
     </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B167">

--- a/soundmodding/sounds.xlsx
+++ b/soundmodding/sounds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan_v\Beamdog Library\EET - Modding\00783\LCA\soundmodding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0616A5-951E-4D33-B1B3-0221D95DFD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD270149-625C-4B3F-BD51-D52C52540253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="2370" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="412">
   <si>
     <t>XA100003</t>
   </si>
@@ -1258,6 +1258,12 @@
   </si>
   <si>
     <t>XA100110</t>
+  </si>
+  <si>
+    <t>XA100111</t>
+  </si>
+  <si>
+    <t>Captain Corwin! Welcome home, and congratulations on a job well done!</t>
   </si>
 </sst>
 </file>
@@ -1601,10 +1607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B208"/>
+  <dimension ref="A1:B209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="A209" sqref="A209"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="B210" sqref="B210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3278,6 +3284,14 @@
         <v>408</v>
       </c>
     </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B167">

--- a/soundmodding/sounds.xlsx
+++ b/soundmodding/sounds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan_v\Beamdog Library\EET - Modding\00783\LCA\soundmodding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\soundmodding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD270149-625C-4B3F-BD51-D52C52540253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F46721F-CF34-4DC0-AE01-D280E1D4A726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="2370" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34125" yWindow="1665" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1609,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/soundmodding/sounds.xlsx
+++ b/soundmodding/sounds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\soundmodding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F46721F-CF34-4DC0-AE01-D280E1D4A726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CEFB7B-9EAF-4E36-A960-701223FA072F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34125" yWindow="1665" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="2205" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="420">
   <si>
     <t>XA100003</t>
   </si>
@@ -1264,6 +1264,30 @@
   </si>
   <si>
     <t>Captain Corwin! Welcome home, and congratulations on a job well done!</t>
+  </si>
+  <si>
+    <t>XA100112</t>
+  </si>
+  <si>
+    <t>Damn it! (Emotional)</t>
+  </si>
+  <si>
+    <t>XA100113</t>
+  </si>
+  <si>
+    <t>We're supposed to be helping these people!</t>
+  </si>
+  <si>
+    <t>XA100114</t>
+  </si>
+  <si>
+    <t>Beno… damn it!</t>
+  </si>
+  <si>
+    <t>BD52113</t>
+  </si>
+  <si>
+    <t>Beno…</t>
   </si>
 </sst>
 </file>
@@ -1607,10 +1631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B209"/>
+  <dimension ref="A1:B213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="A214" sqref="A214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3292,6 +3316,38 @@
         <v>411</v>
       </c>
     </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B167">
